--- a/datenRF4/SFU/i = 24,42 - Abtriebswelle 22 - Geber AV Y1/L2_24,42_22_AVY1.xlsx
+++ b/datenRF4/SFU/i = 24,42 - Abtriebswelle 22 - Geber AV Y1/L2_24,42_22_AVY1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 24^J42 - Abtriebswelle 22 - Geber AV Y1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{A5388A11-308D-4357-806B-CCFD03A10494}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8E156785-9249-4B55-AF11-299F8C523376}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -402,11 +396,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -587,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -660,9 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -714,6 +705,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,7 +775,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -827,7 +827,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1021,83 +1021,83 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="6" sqref="B30 B29 B22 B21 B16 B15 B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="33.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" style="1" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="63.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="24.1796875" customWidth="1"/>
+    <col min="12" max="12" width="63.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:20" ht="21">
+      <c r="A1" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="59" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="62" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="63"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="34"/>
       <c r="H2" s="3"/>
       <c r="I2" s="11"/>
@@ -1113,7 +1113,7 @@
       <c r="S2" s="12"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>95</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="43.5">
       <c r="A4" s="42"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="T4" s="19"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="42"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1239,7 +1239,7 @@
       <c r="S5" s="14"/>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="43">
         <v>5</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" thickBot="1">
       <c r="A7" s="42">
         <v>6</v>
       </c>
@@ -1325,21 +1325,23 @@
       <c r="S7" s="14"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="49">
         <v>1</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51">
-        <v>1</v>
-      </c>
-      <c r="D8" s="51" t="s">
+      <c r="B8" s="72">
+        <v>3</v>
+      </c>
+      <c r="C8" s="50">
+        <v>1</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="50" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="38">
@@ -1359,7 +1361,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="58">
       <c r="A9" s="42"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1389,7 +1391,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="58">
       <c r="A10" s="42"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1419,7 +1421,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="58.5" thickBot="1">
       <c r="A11" s="42"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1449,7 +1451,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="43.5">
       <c r="A12" s="43">
         <v>1</v>
       </c>
@@ -1462,7 +1464,7 @@
       <c r="D12" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>71</v>
       </c>
       <c r="F12" s="46" t="s">
@@ -1501,11 +1503,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="42">
         <v>5</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="53">
         <v>1</v>
       </c>
       <c r="C13" s="1">
@@ -1535,7 +1537,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="42">
         <v>6</v>
       </c>
@@ -1569,18 +1571,20 @@
       <c r="S14" s="14"/>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="43">
         <v>1</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="71">
+        <v>3</v>
+      </c>
       <c r="C15" s="45">
         <v>1</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="45" t="s">
@@ -1603,11 +1607,13 @@
       <c r="S15" s="14"/>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56">
+    <row r="16" spans="1:20" ht="29.5" thickBot="1">
+      <c r="A16" s="55">
         <v>2</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="70">
+        <v>3</v>
+      </c>
       <c r="C16" s="27">
         <v>2</v>
       </c>
@@ -1637,7 +1643,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="29.5" thickBot="1">
       <c r="A17" s="42"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1667,7 +1673,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="29">
       <c r="A18" s="43">
         <v>1</v>
       </c>
@@ -1680,7 +1686,7 @@
       <c r="D18" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>71</v>
       </c>
       <c r="F18" s="46" t="s">
@@ -1719,11 +1725,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="42">
         <v>5</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="53">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -1753,11 +1759,11 @@
       <c r="S19" s="14"/>
       <c r="T19" s="20"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56">
+    <row r="20" spans="1:20" ht="15" thickBot="1">
+      <c r="A20" s="55">
         <v>6</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="56">
         <v>2</v>
       </c>
       <c r="C20" s="27">
@@ -1769,7 +1775,7 @@
       <c r="E20" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="57" t="s">
         <v>60</v>
       </c>
       <c r="G20" s="41"/>
@@ -1787,18 +1793,20 @@
       <c r="S20" s="14"/>
       <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="43">
         <v>1</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="71">
+        <v>3</v>
+      </c>
       <c r="C21" s="45">
         <v>1</v>
       </c>
       <c r="D21" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="54" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="45" t="s">
@@ -1821,11 +1829,13 @@
       <c r="S21" s="14"/>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="56">
+    <row r="22" spans="1:20" ht="29.5" thickBot="1">
+      <c r="A22" s="55">
         <v>2</v>
       </c>
-      <c r="B22" s="57"/>
+      <c r="B22" s="70">
+        <v>3</v>
+      </c>
       <c r="C22" s="27">
         <v>2</v>
       </c>
@@ -1855,7 +1865,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="29">
       <c r="A23" s="42"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1885,7 +1895,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="29">
       <c r="A24" s="42"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1915,7 +1925,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="29.5" thickBot="1">
       <c r="A25" s="42"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1945,7 +1955,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="29">
       <c r="A26" s="43">
         <v>1</v>
       </c>
@@ -1958,7 +1968,7 @@
       <c r="D26" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="52" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="46" t="s">
@@ -1997,11 +2007,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="42">
         <v>5</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27" s="53">
         <v>1</v>
       </c>
       <c r="C27" s="1">
@@ -2031,11 +2041,11 @@
       <c r="S27" s="14"/>
       <c r="T27" s="20"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="56">
+    <row r="28" spans="1:20" ht="15" thickBot="1">
+      <c r="A28" s="55">
         <v>6</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="56">
         <v>2</v>
       </c>
       <c r="C28" s="27">
@@ -2047,7 +2057,7 @@
       <c r="E28" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="57" t="s">
         <v>60</v>
       </c>
       <c r="G28" s="41"/>
@@ -2065,18 +2075,20 @@
       <c r="S28" s="14"/>
       <c r="T28" s="20"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="43">
         <v>1</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="71">
+        <v>3</v>
+      </c>
       <c r="C29" s="45">
         <v>1</v>
       </c>
       <c r="D29" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="54" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="45" t="s">
@@ -2099,11 +2111,13 @@
       <c r="S29" s="14"/>
       <c r="T29" s="20"/>
     </row>
-    <row r="30" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="56">
+    <row r="30" spans="1:20" ht="29.5" thickBot="1">
+      <c r="A30" s="55">
         <v>2</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="70">
+        <v>3</v>
+      </c>
       <c r="C30" s="27">
         <v>2</v>
       </c>
@@ -2133,7 +2147,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="29">
       <c r="A31" s="42"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2163,7 +2177,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="29">
       <c r="A32" s="42"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2193,7 +2207,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="20"/>
     </row>
-    <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="29">
       <c r="A33" s="42"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2223,7 +2237,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="29">
       <c r="A34" s="42"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2253,7 +2267,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="35" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="43.5">
       <c r="A35" s="42"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2283,7 +2297,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="29">
       <c r="A36" s="42"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2313,7 +2327,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="20"/>
     </row>
-    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="29">
       <c r="A37" s="42"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2343,7 +2357,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="20"/>
     </row>
-    <row r="38" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="29">
       <c r="A38" s="42"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2373,7 +2387,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="20"/>
     </row>
-    <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="29">
       <c r="A39" s="42"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2403,7 +2417,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="20"/>
     </row>
-    <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="29">
       <c r="A40" s="42"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2433,7 +2447,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="20"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="42"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2463,7 +2477,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="20"/>
     </row>
-    <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="43.5">
       <c r="A42" s="42"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2493,7 +2507,7 @@
       <c r="S42" s="14"/>
       <c r="T42" s="20"/>
     </row>
-    <row r="43" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="29">
       <c r="A43" s="42"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2523,7 +2537,7 @@
       <c r="S43" s="14"/>
       <c r="T43" s="20"/>
     </row>
-    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="29">
       <c r="A44" s="42"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2553,7 +2567,7 @@
       <c r="S44" s="14"/>
       <c r="T44" s="20"/>
     </row>
-    <row r="45" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="29">
       <c r="A45" s="42"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2583,7 +2597,7 @@
       <c r="S45" s="14"/>
       <c r="T45" s="20"/>
     </row>
-    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="29">
       <c r="A46" s="42"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2613,7 +2627,7 @@
       <c r="S46" s="14"/>
       <c r="T46" s="20"/>
     </row>
-    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="29">
       <c r="A47" s="42"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2643,7 +2657,7 @@
       <c r="S47" s="14"/>
       <c r="T47" s="20"/>
     </row>
-    <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="29">
       <c r="A48" s="42"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2673,7 +2687,7 @@
       <c r="S48" s="14"/>
       <c r="T48" s="20"/>
     </row>
-    <row r="49" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="29">
       <c r="A49" s="42"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2703,8 +2717,8 @@
       <c r="S49" s="14"/>
       <c r="T49" s="20"/>
     </row>
-    <row r="50" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="56"/>
+    <row r="50" spans="1:20" ht="29.5" thickBot="1">
+      <c r="A50" s="55"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -2741,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" s="42"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2758,7 +2772,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2779,77 +2793,77 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="O53" s="32"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="32"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="O54" s="32"/>
       <c r="P54" s="32"/>
       <c r="Q54" s="32"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="O55" s="32"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="32"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="O56" s="32"/>
       <c r="P56" s="32"/>
       <c r="Q56" s="32"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
       <c r="Q58" s="32"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="O59" s="32"/>
       <c r="P59" s="32"/>
       <c r="Q59" s="32"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="O60" s="32"/>
       <c r="P60" s="32"/>
       <c r="Q60" s="32"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="O61" s="32"/>
       <c r="P61" s="32"/>
       <c r="Q61" s="32"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="O62" s="32"/>
       <c r="P62" s="32"/>
       <c r="Q62" s="32"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="O63" s="32"/>
       <c r="P63" s="32"/>
       <c r="Q63" s="32"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="O64" s="32"/>
       <c r="P64" s="32"/>
       <c r="Q64" s="32"/>
     </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="15:17">
       <c r="O65" s="32"/>
       <c r="P65" s="32"/>
       <c r="Q65" s="32"/>
     </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="15:17">
       <c r="O66" s="32"/>
       <c r="P66" s="32"/>
       <c r="Q66" s="32"/>
     </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="15:17">
       <c r="O67" s="32"/>
       <c r="P67" s="32"/>
       <c r="Q67" s="32"/>
